--- a/biology/Botanique/Poulet_sauce_rouilleuse/Poulet_sauce_rouilleuse.xlsx
+++ b/biology/Botanique/Poulet_sauce_rouilleuse/Poulet_sauce_rouilleuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le poulet sauce rouilleuse est un mets typique de la région du Sud-Ouest de la France. Il doit son nom à une sauce préparée à base de vin et du sang de la volaille.
@@ -512,9 +524,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mets nécessite un poulet découpé en morceaux, un gros oignon émincé et une douzaine de petits oignons, de la farine, du vin blanc, le sang de la volaille et un verre d'armagnac[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mets nécessite un poulet découpé en morceaux, un gros oignon émincé et une douzaine de petits oignons, de la farine, du vin blanc, le sang de la volaille et un verre d'armagnac.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les morceaux de poulet sont fricassés dans de la graisse d'oie ou de canard. Quand poulet et oignons sont dorés, ils sont recouverts d'une cuillerée de farine qui doit un peu roussir avant d'être mouillée au vin blanc. Puis il est ajouté un bouquet garni et des herbes de Provence. Le sang recueilli dans un bol, et vinaigré, est rajouté progressivement au roux, ce qui permet d'obtenir une couleur rouillée. La cuisson se termine après avoir flambé le plat avec un verre d'armagnac[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les morceaux de poulet sont fricassés dans de la graisse d'oie ou de canard. Quand poulet et oignons sont dorés, ils sont recouverts d'une cuillerée de farine qui doit un peu roussir avant d'être mouillée au vin blanc. Puis il est ajouté un bouquet garni et des herbes de Provence. Le sang recueilli dans un bol, et vinaigré, est rajouté progressivement au roux, ce qui permet d'obtenir une couleur rouillée. La cuisson se termine après avoir flambé le plat avec un verre d'armagnac.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traditionnellement s'impose un vin rouge tel que le Buzet (AOC)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement s'impose un vin rouge tel que le Buzet (AOC).
 </t>
         </is>
       </c>
